--- a/test/templates/test-tables.xlsx
+++ b/test/templates/test-tables.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,47 +30,47 @@
     <t>Age</t>
   </si>
   <si>
-    <t>${table:ages.name}</t>
-  </si>
-  <si>
-    <t>${table:ages.age}</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
-    <t>${table:scores.score}</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>${table:coords.x}</t>
-  </si>
-  <si>
-    <t>${table:coords.y}</t>
-  </si>
-  <si>
-    <t>${table:dates.name}</t>
-  </si>
-  <si>
-    <t>${table:dates.dates}</t>
-  </si>
-  <si>
     <t>Dates list</t>
   </si>
   <si>
-    <t>${table:scores.name}</t>
+    <t>${table:ages:name}</t>
+  </si>
+  <si>
+    <t>${table:ages:age}</t>
+  </si>
+  <si>
+    <t>${table:scores:name}</t>
+  </si>
+  <si>
+    <t>${table:scores:score}</t>
+  </si>
+  <si>
+    <t>${table:coords:x}</t>
+  </si>
+  <si>
+    <t>${table:coords:y}</t>
+  </si>
+  <si>
+    <t>${table:dates:name}</t>
+  </si>
+  <si>
+    <t>${table:dates:dates}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -487,31 +487,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="20" thickBot="1">
+    <row r="2" spans="2:7" ht="20.25" thickBot="1">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:7" ht="14" thickTop="1"/>
+    <row r="3" spans="2:7" ht="13.5" thickTop="1"/>
     <row r="4" spans="2:7">
       <c r="B4" s="1">
         <v>101</v>
@@ -532,21 +530,21 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>102</v>
@@ -554,18 +552,18 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>103</v>
@@ -576,15 +574,15 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>104</v>
